--- a/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/6_Amasya_2018.xlsx
+++ b/Tahsilat Tahakkuk Harita Analizi/veriler/Tahsilat Tahakkuk Excel Dosyaları/Yıllar/İllere Göre Tahsilat Tahakkuk 2018/6_Amasya_2018.xlsx
@@ -5,12 +5,12 @@
   <workbookPr codeName="BuÇalışmaKitabı" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\Yazılarım\İllere Göre Tahsilat Tahakkuk (Yıllara Göre)\indirilen_exceller_2018\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HUSOCAN\Desktop\İllere Göre Tahsilat Tahakkuk 2018\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C09206F8-70C9-409E-B86E-5651A48255BA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{285E2CCF-2589-4E33-88DB-AB412B07780C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="658" xr2:uid="{7A65DA6A-334F-4088-BDC7-1D42D94650A6}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="658" xr2:uid="{31F876C0-2B7E-4782-A713-B93126D5E38A}"/>
   </bookViews>
   <sheets>
     <sheet name="ARALIK" sheetId="91" r:id="rId1"/>
@@ -948,15 +948,15 @@
   <cellStyles count="11">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 2" xfId="2" xr:uid="{7079EEC9-F119-4492-8AD2-B3EAFF6263EB}"/>
-    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{87EB54A2-0E8F-4E53-B676-C3B876D515C8}"/>
-    <cellStyle name="Normal 3" xfId="4" xr:uid="{0F14DDDA-B37B-4B83-BE1D-8F96384A337E}"/>
-    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{A12B16BC-7A4C-401C-AF3E-192F3F003BBA}"/>
-    <cellStyle name="Normal 4" xfId="6" xr:uid="{55A0B065-6FCF-4F86-8862-9118912438C7}"/>
-    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{9FC89DC1-5F49-4A2E-900A-B12B13FBB3FB}"/>
-    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{58FC20BC-C1A1-480D-8720-F9AAF498920D}"/>
-    <cellStyle name="Not 2" xfId="9" xr:uid="{1B0667A7-E99E-4697-B2F0-72BD85206091}"/>
-    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{54867D95-6A22-453E-9ED2-A2EE084DD391}"/>
+    <cellStyle name="Normal 2" xfId="2" xr:uid="{1621C454-1F7C-4E1A-9C03-90C3DAD85857}"/>
+    <cellStyle name="Normal 2 2" xfId="3" xr:uid="{F325985D-7740-495C-86AF-89A521A29095}"/>
+    <cellStyle name="Normal 3" xfId="4" xr:uid="{0559B092-275D-4136-A3E8-46FF1F74F314}"/>
+    <cellStyle name="Normal 3 2" xfId="5" xr:uid="{9DD09432-8808-4053-A6D3-4D0647919FB2}"/>
+    <cellStyle name="Normal 4" xfId="6" xr:uid="{20EBD325-8ADD-4CE0-B4CD-5C300853000B}"/>
+    <cellStyle name="Normal_genel_gelir_det3" xfId="7" xr:uid="{2106EF15-E66F-4266-8802-D7BD67DD7F20}"/>
+    <cellStyle name="Normal_genelgelirtahk_tahs" xfId="8" xr:uid="{EB3FE393-CE27-4B75-834A-581095D3193A}"/>
+    <cellStyle name="Not 2" xfId="9" xr:uid="{8801E783-8522-400A-9574-91E4E72D0FF0}"/>
+    <cellStyle name="Virgül [0]_29dan32ye" xfId="10" xr:uid="{40E6046E-CB98-4C47-9150-A9780D32A3B8}"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1326,7 +1326,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{62FD918B-80BB-4E9C-B133-34B9520C1B02}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D4DAC8C-BD6C-4EEE-81D7-18E535FF4392}">
   <sheetPr codeName="Sayfa12"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -2610,18 +2610,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CC5F5E70-2D1B-4EF3-81E8-2372AEADB43E}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{A81C4ED5-0B55-4024-8C8B-6E2960E8E55A}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{3B26EDFA-535A-479C-9353-D2DC1EC251A0}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{BBA95AB6-5454-4BBC-A5AE-9F04D2A80FD6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7E3B57D8-A800-444D-9B42-4CE3BD5D382F}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{5759EF67-492E-429C-BB6B-D57EA17DEE02}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{2D736665-8C57-4269-A6D0-B9FF7885CC8A}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{B460CE58-AF44-41CE-9415-B2295296F82A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{9E1BFD63-EF8A-410A-9583-93A31238086B}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{6C252F9D-E593-4AFB-B5CF-E615E176B0D6}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{3B5B994E-5F65-415F-8980-98C91E7393F8}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{ED0AD800-3AD3-4227-B6DC-6EFB86CC49FB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A06DB464-19E7-45FD-B150-C0745E5EC5D6}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{DCF05E76-E204-45B4-9036-764384238159}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F755CFAA-3EAF-4EDC-9355-AFDC0C2532ED}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{16A97FB5-3F3A-401D-89FA-B1E041DE9862}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8BCA31DB-D075-486B-A860-A141C45628F9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{CE95A510-DB7D-42DE-B1AF-342045EB653E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C74DCEAC-4654-4028-AE3C-16A195622ACB}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{535F64AA-46C1-4FDA-8154-CD75CA35BD2C}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{3D01156D-5559-4803-A29E-8B6C1CFB2850}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{B9D4CFB7-CF96-4D58-BB8C-62DE4D995D37}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{8B1DEE70-247B-46FA-84D2-515B72AE76AA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{27845D39-6D40-4CB0-994A-77A260A78A28}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -2634,7 +2634,7 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BD608D8-5C14-4B68-9D80-DA5730C97CAE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C3FD9D56-387D-4AF6-BA0C-0365B79ECA15}">
   <sheetPr codeName="Sayfa4"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -3904,18 +3904,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{96F27472-68B4-4E82-83D0-D8F3F86BE4BA}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{3B03D359-DFD7-4D5A-867B-7B52F72BF690}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D06ED4D0-B70C-43D4-B2D7-C7395939A5F3}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{533DD1F1-238A-4676-8414-07C62A55C196}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{67458B29-F93C-4B53-8EF4-D4F102578B32}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8C0E3F1B-4F6F-4E0E-A9E7-BE3D2BD87796}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1BBD1EA9-01BD-4AF7-A3F2-3DF4EB427D1B}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C276348B-6AD3-4487-AF5E-F1D084427D20}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{A92D2E06-8692-4D8E-AA09-7924D17D9FEC}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A2386C11-5E73-4C04-BE97-46DB2BC2B3C9}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{708E5BE4-4951-45FE-BF71-75B6350FBE0D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{63A59270-236C-464A-966F-687498827CB7}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{6C50B213-DAB3-49D7-8D8F-EEDE2143FDA3}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{92CFE689-F3D4-459B-B8F3-062B64D269F9}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D39701E4-9D6C-4CFC-817B-4720531EA0DA}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D6F58F2A-EF2F-4676-8814-2C1EB2B3F865}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{65F8E141-7731-4B07-BAE8-2F793C764E95}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{68C3206F-E4BE-44C2-8BF6-82F2D80072C0}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{0F2F57CA-9E40-4D38-864B-84D024E7219A}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{14344797-CC8B-4A9E-BFCA-0AECB38B76DD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{ABAB81F5-65BD-440B-9747-404E21634B5C}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A86EA198-F47B-4313-BBA2-5FC3BC6DC471}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B8ACF821-6DE0-4BF0-9216-F058E67DD614}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E335F11A-A240-43AB-BFC6-AEDA80BD830F}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -3928,7 +3928,7 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{708F42B5-1630-48A6-8D79-145877C74BD9}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26BE5283-3506-4E4F-BF6A-3BBC5C24BB53}">
   <sheetPr codeName="Sayfa5"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -5198,17 +5198,17 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{2785B779-FD1F-49A8-9062-2D0542BFAFD0}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{5A3B9289-2F6F-40C7-99D4-1CCCD176BB10}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A9A4FFF3-C6DB-495C-A998-E5412ADC0113}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3575D519-D8C9-4DAF-894E-AAD9A7297F4E}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{70C6D592-7C2F-40B1-9F1C-04B875108B08}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EDECD913-E1FC-4923-82DE-63D9FB0FBDDE}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{081B1394-BA34-46EA-BC69-F86E250AF14E}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0E4BB4FE-E9DC-484E-8E70-58B9FE6A0A4F}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D3C5F40F-453E-45E7-B405-F027EA915F2E}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{47D4847C-87F6-40AA-A45C-815602E33101}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{7C096C58-61B8-4115-BA31-704065CE1BBB}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{B953EC52-D3E2-44E4-BEE9-2760E785A0F6}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{985B3AFE-0A65-4F1A-975A-A3187BDDD6B3}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{1E3B4A92-40CA-4F33-AD93-AB25B85ADF12}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{38076376-FAC1-44BC-AC89-5C45E52D8CA9}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8C6779D5-6BE2-4F70-A4D3-5B3AB74ADFD9}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{63E7B988-EC9D-4BF3-9F38-5ED4ADA20E40}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5A66E8BF-1A54-4AFE-AC86-36130B58C92D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{EF94854E-20D9-4E8E-BBF8-35643BE9F611}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{EEEE437A-46B0-40B7-B569-2D351CC49817}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B8239455-1A90-4283-9564-7D2523CD8EB2}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{869BD7CA-D8E7-475C-895C-ECF3FA946CA3}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -5221,7 +5221,7 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FEC069AC-C678-4FD7-9671-8D52EE59E845}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4D0A2C9-DDF1-42CF-80FC-F025A8F8EB03}">
   <sheetPr codeName="Sayfa6"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -6483,18 +6483,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DCEFF12B-F1C3-43ED-B171-0B4C9E6295E1}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B369D5ED-66EF-49DF-B8A9-652373697602}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{39EE9E29-00AF-4322-ABC0-71552B3B8ED3}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3647A2DC-C5CC-4CC6-A88B-D2717CD755C9}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{D9CC2B91-AC1A-411B-9DF2-157D5AF615A4}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C165E07C-7EF5-4033-A2AF-92FD06F7B6CD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{EFB8EF0D-6A8E-4421-8657-F318B61175F2}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{689E1119-4F01-41E2-BED8-BF9833F8124A}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{FCD7B186-03D9-4C7E-BBB5-1695EF280067}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{905641BD-CD08-41BB-8BA6-D07ECE327CE7}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{054DC16C-67FF-492F-97A9-DC7984EA977A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C3449C2E-35EA-44CF-9396-7E359B234E20}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{23D99032-77E3-4A78-A664-70C8CEECD18E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{A183CE32-A61B-447E-80BC-3A7FE191DBC3}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{C1CF265D-9D09-45C6-8D94-C3974FF481F8}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{602B30AD-EA5C-42A6-865F-FCBD137AE097}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{00582C04-6127-476E-AF47-AC0C6144D015}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{6FCB476B-FB98-4F37-80EB-513406982476}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{90FAA98B-14EA-48C5-800F-5BF161AE753D}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{9B85E862-EA62-4C00-9835-91252BFC1CDD}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{33B5E5EE-7FD2-41B7-BBFD-73B380082EC1}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E8EDA259-FCEB-498F-9B18-67EBACB46960}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{288C0378-59A6-4E0B-BB18-DFB1D199CCFF}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5D97388B-B5A7-48A3-A997-B00691ECA4AE}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -6507,7 +6507,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B6D2654-1CB9-42B4-81B7-6644396536DC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F8202F-6640-4713-A975-B3D3C701D1B5}">
   <sheetPr codeName="Sayfa11"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -7791,18 +7791,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{88A73A3E-4FBC-4EA1-BD01-0606236D0B73}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{0F3BEB10-3D5D-448F-A080-A6C8748566B4}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D5B9A9D9-B1FD-446D-B862-1BD7C1349995}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{384D8646-B0EC-4A86-9164-32D331DA1CD6}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3AF23131-0000-4B64-A8E8-0E02EE6BD89B}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{4EA74C8A-8A74-4B8D-8EDA-180BCBDD669D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{3F108B21-899C-4C24-BE64-7535874E2747}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C26F96FC-4B20-45E7-83E8-DE1CACE5001F}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{D8D13A41-9715-4593-B38E-F2E769697F84}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C7EF863F-6F67-4658-8DC0-62EC2D33D6A0}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E7BD75A6-AC0F-49B5-9942-6BDA5F9ECA3A}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{19D7D91E-7811-40ED-9BAF-92FBDDF9A93D}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{CA2DF15A-1AC4-4F55-A06F-00774748A124}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{282358A0-D0A4-474D-A513-50AD1CCA632E}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{08D541F9-46D5-43D0-ADE4-8D47C29C57BB}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8DE0ADE9-C68D-4E38-A8F8-40AEC2E70241}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{6B68C30F-A6AA-45EB-9247-3A72E675A828}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{FC535CA4-56AF-46D8-AB8B-9541F44A068E}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B9FBFB47-4E4F-44B2-8207-90A655BC2D91}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2FC0ADB3-2043-4C8B-95C9-DA81F1FEFEE4}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{4D5A788B-ED1F-4E93-A825-2435C1634B54}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D0CA8E26-0FC7-4090-AD8E-9DFC3A0F74A9}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{E2C76BB2-4DC8-4687-991F-ACF30E89007D}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E2068998-443B-4D87-8AFE-9CDA68701816}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -7815,7 +7815,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C01F03EA-B173-4615-82D6-D8FF75DF18EE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F737DA06-0AD5-453B-A573-3BD91CB43F97}">
   <sheetPr codeName="Sayfa10"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -9099,18 +9099,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9B5354AC-071F-4C19-A108-50FEE9356B73}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{30307423-3FB5-489B-A609-0487D349E58D}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{592C6916-3F47-4A48-8BCE-A29D79AB3BC0}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{E64EE5EE-766D-4932-818C-CE82C87D3126}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{73078ED2-1C8E-494E-8A44-9BBA3812CCC0}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EE92BADC-075E-42EA-9D9D-FBCCD9B4E7BD}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6E8B9373-0B95-4854-BB1C-94D94FCDD704}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{1C87E667-284A-444F-BBDC-D3403542286C}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B5D3CB3C-AC2B-4FDD-A654-49F3A266B963}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C40F8402-2FA0-4D70-8B2F-C2A22359EAEC}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{2A06F4C1-C92B-4212-9916-E9B734F03BF7}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{B1639349-3AD8-47AF-A93E-51B4998BB67C}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{351AA987-1CA6-43BA-A833-B752840D4962}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{5EB62C06-C8EA-4207-B4D8-F3445B219042}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1B59B412-D794-4B43-A983-F544DE2B359F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{79D66224-0530-4BC5-9A74-28784F60EB1E}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{8DDEFFF4-4959-451E-A235-943DF08CC03C}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{EC258C3C-256F-4331-93A9-5B06511DC92A}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{009B4923-2210-4D4F-B07B-EF0AF449B955}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{2215AE67-F831-442B-BBB3-DEB117964BC0}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B9CB6D71-F4CF-4AA6-A8FD-62A703280D88}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{FCE99A3A-11A8-4907-BFF9-C68FC34F7D5A}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{6F0F4C8D-906D-4ACF-9B96-441728452377}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6B89E088-E2BE-4F1A-BE6F-4E87C1A20DF5}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -9123,7 +9123,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2E93242F-6BDA-4484-841F-A20BEF841F79}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{319618B3-3BEC-4F06-9B23-B9FF73AC9CE4}">
   <sheetPr codeName="Sayfa7"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -10407,18 +10407,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{9E685A6A-D8AC-46BE-868D-D44D1C606FB4}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{42CEF468-0428-41A5-A64A-D0719649F67C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B2B6415F-03C5-4D17-80C4-D611E1D53017}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{99D7C4F7-EFBB-4B60-822B-2D2E625474DC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{F173DF21-6066-4D80-B2EE-4BE0C3FA7975}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{550ABF07-75D5-4209-8AC0-2B1E26495FE8}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1CEF1172-DB85-44E9-A722-211D9F815129}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{D3D99ED8-B5B1-446D-BE70-F4D0E4A188B7}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{81381C8A-A032-4D95-8986-29A584BE5571}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DC5061EF-B7AF-438F-8C2C-46ABE8B8CC94}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{9FA5DD56-2CF4-460A-BE5E-7F36916FA06B}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{EFD01E8A-B288-4206-89DD-1E90EEE07585}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DC7E0E16-F40C-4243-B5D9-C6D244AD209E}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{1EB9A073-B272-41E3-ABC6-ADF466EC3FFB}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{6DC51E35-9B2F-4ED5-8E6E-299515A27E54}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{A3AFB48E-6636-4B50-A5E4-D5A0590E912A}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{986B2883-D9F8-43CD-AF51-6C894056D916}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{8CC5C827-A866-4812-BABE-5D577AFB6D19}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{94E1F18A-E5E1-45FA-B541-548CC190F137}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{343BAA0A-5182-4D30-8811-A36224384931}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{5306E0CA-B874-4E26-8F2C-498977CBC3EB}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{C7266780-755E-4237-8307-216C6CB1B857}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{5EE3E797-5DC7-4CEB-97D5-28510220B67E}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{E04D738A-6830-4BC6-A04D-71C452CF982B}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -10431,7 +10431,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA187174-9522-4E6C-A29C-D4EA6EE3D681}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{059C4079-8320-4E3B-A902-A0E2B70AB247}">
   <sheetPr codeName="Sayfa8"/>
   <dimension ref="B2:F101"/>
   <sheetViews>
@@ -11715,18 +11715,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{7896DE19-9BA8-47B6-BA01-FEE4B158212B}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{14881EEB-3C37-466D-B3F6-244BF86EF500}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{1F2C29B1-BF9D-430F-AD68-0300D8AE6CEC}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8E4681AE-B045-4DFD-B21B-0229AFF2F0A7}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{ACCB7C1C-B444-4FFA-B5BE-6A414D974777}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{644D6903-17E0-4981-9EA4-51C122FA3EE5}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{A181E527-76CE-47B1-8118-CAFFE88CE20D}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{6CC8F5E8-6809-42C9-B43D-00704948046D}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{15A72A62-3D0C-43AB-BAE1-A299993B0205}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{780FE250-4DAF-4CE3-8642-861B45E78083}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{26692D6D-706F-4BAA-BACB-6DDF6FBF100D}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{5493CCF9-8982-4F51-AF96-CA439CE3F1F3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{860F49D5-CF2E-4C20-8942-B78B74F29C78}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{40D19000-8C41-4AA6-AF7C-55C259906CC1}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{D912536E-A59A-4BC5-BD0E-DCA27E667217}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{EC5E814F-061D-4D50-B43F-B69B1BD8A319}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{28116112-9EC2-47AE-9116-0610E5ED94FF}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{C2D8BAF4-24A7-496D-9581-C2C9EB4EE3E5}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{F90DF412-0569-4035-B400-1237E0043793}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{15C37FFC-595B-4BF6-954F-724631FCE10E}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{60EEEAE8-DC9F-4ADD-8EB4-D124FE8F5D29}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{35C80ACA-BA6D-4DDB-9429-F7CD1BE3C53C}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{EEEDE9CB-7565-486B-A81A-B7A8D659B4D4}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{2315BDB6-D1B9-4D0A-807B-2B4BC55834CB}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -11739,7 +11739,7 @@
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1F6C37EC-08F3-498B-B85C-185914B69535}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FAB089B2-0E18-4B5C-8501-E5B6D4B1397D}">
   <sheetPr codeName="Sayfa9"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -13011,18 +13011,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DB93E58A-9FB5-4C7E-860A-9E950723929B}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{1D8B4A20-7AE8-42D1-A353-C5468EEF4044}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{8F258DA3-8BC4-4BF9-8C11-B35A03A5E71F}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{8780A083-14EB-4E8D-A4B0-B5FEB2DAC1DC}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{55041FC2-8681-4665-9966-6A5B774EBFD6}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D2B986E7-8DC6-407B-A474-52732B5029EB}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{6BCC2C7D-97C2-4B0F-8724-AE1B2A14C375}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{5FBF00BC-F9A3-4B3F-A48F-F03B7F76AE91}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B020D9B7-C3D7-417E-A28B-E337A80A31DE}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{9F1FFD69-62A8-474E-AE30-BD412E67526F}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{B72C8D23-1E18-4229-9500-157516B72D00}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{6C742D80-4B31-4ADA-A536-FEA4232990F0}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{687A2F7F-38F7-4717-9794-3048911CF084}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{1EF331F5-FDF0-4269-AB0C-8410F86AB261}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{74518884-9A4C-4FE4-AD89-D37C8A056CAB}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{9AA0DA9B-DA9C-4FF8-8978-3B99DEBB8878}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{68D7B801-3158-45FF-8CD8-08C67E1DBDE3}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{B26C8DAF-A23C-43E3-B6E5-87A8D15DD6DC}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{64D37A5B-89BF-483B-8866-940A1D15896F}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{4C7E38E7-5C31-4254-8783-27E8891E2290}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{1B62FB46-61F7-40B6-AFD6-2F8FD4FD0756}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{AF6168DA-9316-4CD5-9720-70392CD50F3F}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{BF126EE0-85AA-4AEC-8544-52C63BAB3262}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{604A27AA-AD55-425C-9A8F-9DC8EEB9D375}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -13035,7 +13035,7 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C51AD85B-C92B-4393-9112-0B93A8831DA6}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E2BBA4DD-CB7C-450F-9908-1AB1F4BBE495}">
   <sheetPr codeName="Sayfa1"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -14307,18 +14307,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{67BF27C2-4D8E-4C1E-B5C7-BFF211CDB34B}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{CC9E2F66-D1C4-456A-B03E-6754CBC252B9}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{B07D162D-1075-4E45-9575-205B088F5740}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{D867FB05-E2C6-48A8-8BBD-7442CF642F75}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{975BC0B5-E17F-47F4-A8FF-8666317770B3}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{AD488611-3312-495C-974A-3A0EE3A5987D}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{C4A61CBA-9E79-49F2-8201-A411539A39A9}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{ECA6E408-9A11-422D-8FB7-1852182232D5}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{06284E5B-4537-4517-BD43-484F9F334B0A}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{58C3455F-389D-413D-915B-45AAD4A70E49}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{C81D4A61-0EE4-46D8-B030-8118280FF1BA}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{CB310472-2B39-474B-9EFF-50BE8CA00B73}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DD283B06-79B3-4131-A55B-6404E5CB5EAE}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{C5A1150D-D15C-479A-84A1-EF77DD99C30D}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{299ED998-B46C-4530-B4F8-7A5CBAC0A85F}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{FC5E8ABD-B7D0-4D67-A8EC-922DEA042283}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7499942A-4014-4409-8EFE-53E0323554A1}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{995C82D3-97D3-4583-9F22-0B6D11B96D0D}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{4DEAD545-3DC2-4D88-8589-A8BDCA65DC22}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{05B965C0-3345-432D-97C2-75E9CB4D5976}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{65702721-243E-4598-9177-D4BD5C490736}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{D655A2E3-7555-4620-9270-0B9AE9F1E389}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{98F6179B-72F1-4C53-88FF-1AD430846468}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C06233CD-1AE2-4385-A363-52A8FC955758}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -14331,7 +14331,7 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{72771A3E-3BFF-4BEC-A9B4-53D11476031D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C5A685AD-2B2D-467D-A19A-5C3BEAE0489B}">
   <sheetPr codeName="Sayfa2"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -15601,18 +15601,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{DAC1B0A2-2316-41FF-9F51-CF4D54D4A24C}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{2F8CB032-6D6C-4412-BEC2-4716A2EE7D2C}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{E2329468-2EB4-476C-9A6C-E83AE33A557F}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{901B2E86-C24D-4F81-875F-690CF383B99D}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{4DC825DA-EFE1-4D14-8C74-4C5C61014CA8}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{9C63BF30-102C-46FF-8C2D-11773BE3831A}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{B653CE8A-B3B1-4CF3-A6B0-4D28430D5377}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{0877F275-0B15-43F4-83DF-CE79EEA0D5A9}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{95C13E7E-7D2E-4A07-BE49-4B2AC12C9B53}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{138498DA-D87A-4447-A2E8-46A45923CDE4}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{F5C113B6-1298-4C5E-AD2A-4B8DE5DAED57}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{DB40494C-2317-4B4D-B1E7-79E760114BB3}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{A58DA86C-FC17-4EFF-B396-7CB7EBFF689C}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{4DB4864A-0512-4404-92AE-373A0DFD6927}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{F6EF41C0-7D20-404E-AE4C-38A95B43FAA2}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{7BE14317-927B-4268-A20F-87996BDA205C}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{7CDE3E34-3ADC-4B26-8FBF-BD6453381920}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{889F2DDB-6F7B-47CA-9EFC-532DA1734903}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{7A077BE2-B536-4A84-A871-05A2158A6A47}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{C13C065D-3255-4F04-9FBF-3B7BB74ECC6D}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{15AE072E-8D20-4BE6-BF9A-C75142170176}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{E04C349A-A83B-4740-93D9-0C45859B5648}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{804CAE15-AE7B-415E-B0E4-CC895BCCC5BA}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{C85936FF-8F52-4BDC-A817-0595EF2D1961}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
@@ -15625,7 +15625,7 @@
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E8223558-93B3-4AED-959F-5FE1CA0B42C8}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B14C9E9B-0C2D-4997-9181-D7F6D9EF266D}">
   <sheetPr codeName="Sayfa3"/>
   <dimension ref="B2:F100"/>
   <sheetViews>
@@ -16895,18 +16895,18 @@
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{1C146326-BF93-4EC8-8E33-D9110669EF0B}"/>
-    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{33045ABF-1012-4522-9350-DF1D17CEB317}"/>
-    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{71595516-45D6-4FCD-8CD9-C024180EAE56}"/>
-    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{3234D676-FF5E-4C8F-8E2E-877910A7576A}"/>
-    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{3D9BD3BE-8D9A-46E3-99ED-174D3DA9FEEC}"/>
-    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{E54D698A-B63A-4757-B1C1-AB47E767EFAE}"/>
-    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{1CAB5740-052E-4144-BCB2-75570B7608A1}"/>
-    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{3A7FCD06-C408-4A14-A380-F1FB1E663D71}"/>
-    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{0CE90335-8560-480E-91C0-E24C10C23D07}"/>
-    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{DC4B0F7E-5D01-4AAC-8B99-D68C1EC7A7B2}"/>
-    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{468639F5-D1CC-4830-A255-95E2DA4FB6E2}"/>
-    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{42C56844-E997-4B3B-B489-71E61D8AE8FC}"/>
+    <hyperlink ref="C4" location="OCAK!A1" display="OCAK" xr:uid="{D46FD04D-1436-4676-867E-8A0C83340485}"/>
+    <hyperlink ref="E4" location="' MART'!A1" display="MART" xr:uid="{1AB53FB0-692B-4A0E-8186-C10A1CD11A92}"/>
+    <hyperlink ref="D4" location="ŞUBAT!A1" display="ŞUBAT" xr:uid="{FB24D86A-468F-475B-A3A4-E109F5F7B74D}"/>
+    <hyperlink ref="C5" location="'NİSAN '!A1" display="NİSAN" xr:uid="{0FE4F22E-60B4-460E-B58C-ED4652AD9BAA}"/>
+    <hyperlink ref="D5" location="MAYIS!A1" display="MAYIS" xr:uid="{5012A37F-32C2-4D81-98CE-A9DE1CFCEA36}"/>
+    <hyperlink ref="E5" location="HAZİRAN!A1" display="HAZİRAN" xr:uid="{D389CF00-370B-431E-ADE3-C42022CDCFC8}"/>
+    <hyperlink ref="C6" location="TEMMUZ!A1" display="TEMMUZ" xr:uid="{5C029D51-E10B-4AB0-A798-D1634FB05F71}"/>
+    <hyperlink ref="D6" location="AĞUSTOS!A1" display="AĞUSTOS" xr:uid="{924DE5F9-E8C4-421B-A5D6-7E57A4A7B1D2}"/>
+    <hyperlink ref="E6" location="EYLÜL!A1" display="EYLÜL" xr:uid="{B3602A43-8F87-42A1-9B65-5A507324A461}"/>
+    <hyperlink ref="C7" location="EKİM!A1" display="EKİM" xr:uid="{A02B24FE-C4D2-4F88-8860-FBFA468F2810}"/>
+    <hyperlink ref="D7" location="KASIM!A1" display="KASIM" xr:uid="{FB58AA6E-A7D0-4A4E-93B0-87A9A8AB6FE1}"/>
+    <hyperlink ref="E7" location="ARALIK!A1" display="ARALIK" xr:uid="{4DC2F9A3-2EA4-487E-8A2E-B35FF8D7EF19}"/>
   </hyperlinks>
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.19685039370078741" right="0.19685039370078741" top="0.19685039370078741" bottom="0.19685039370078741" header="0.19685039370078741" footer="0.11811023622047245"/>
